--- a/data/Output/xlsx/results_autumn_benchmark.xlsx
+++ b/data/Output/xlsx/results_autumn_benchmark.xlsx
@@ -160,7 +160,7 @@
     <t>Li-ion</t>
   </si>
   <si>
-    <t>20-90</t>
+    <t>10-90</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.2757775534821004</v>
+        <v>-0.1105331831947354</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2476787613973777</v>
+        <v>0.08671595444869609</v>
       </c>
       <c r="K2" t="s">
         <v>47</v>
@@ -651,13 +651,13 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-2.578511725366226</v>
+        <v>-0.9027746426894632</v>
       </c>
       <c r="T2">
         <v>-0</v>
       </c>
       <c r="U2">
-        <v>2.578511725366226</v>
+        <v>0.9027746426894632</v>
       </c>
       <c r="V2">
         <v>2.764490036231884</v>
@@ -674,7 +674,7 @@
         <v>105.9164436645103</v>
       </c>
       <c r="C3">
-        <v>47.10744137316887</v>
+        <v>55.48612678655268</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.343166239327913</v>
+        <v>0.01944970280594371</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2881110563751421</v>
+        <v>0.1532291661576549</v>
       </c>
       <c r="K3" t="s">
         <v>47</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-2.720173057242484</v>
+        <v>-1.446698556486729</v>
       </c>
       <c r="T3">
         <v>-0</v>
       </c>
       <c r="U3">
-        <v>2.720173057242484</v>
+        <v>1.446698556486729</v>
       </c>
       <c r="V3">
         <v>2.740370018115942</v>
@@ -745,7 +745,7 @@
         <v>122.2299783243869</v>
       </c>
       <c r="C4">
-        <v>33.50657608695645</v>
+        <v>48.25263400411903</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3962180405628863</v>
+        <v>0.3669290355493403</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3301817004690738</v>
+        <v>0.3179779483800963</v>
       </c>
       <c r="K4" t="s">
         <v>47</v>
@@ -793,13 +793,13 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-2.70131521739129</v>
+        <v>-2.601472672573112</v>
       </c>
       <c r="T4">
         <v>-0</v>
       </c>
       <c r="U4">
-        <v>2.70131521739129</v>
+        <v>2.601472672573112</v>
       </c>
       <c r="V4">
         <v>2.701315217391305</v>
@@ -816,7 +816,7 @@
         <v>89.729705482559</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>35.24527064125348</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>-0.2911455364839606</v>
+        <v>-0.2481288319812167</v>
       </c>
       <c r="H5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0179236268761433</v>
       </c>
       <c r="K5" t="s">
         <v>47</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-0</v>
+        <v>-0.199751317356404</v>
       </c>
       <c r="T5">
         <v>-0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.199751317356404</v>
       </c>
       <c r="V5">
         <v>2.70391259057971</v>
@@ -887,19 +887,19 @@
         <v>77.99005802293598</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>34.24651405447145</v>
       </c>
       <c r="D6">
-        <v>9.570888597260158</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.4785444298630079</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.147541984754481</v>
+        <v>-0.2471284030986051</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.001955247174260126</v>
       </c>
       <c r="K6" t="s">
         <v>47</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>9.570888597260158</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -935,13 +935,13 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-0</v>
+        <v>-0.02507046697779235</v>
       </c>
       <c r="T6">
         <v>-0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.02507046697779235</v>
       </c>
       <c r="V6">
         <v>2.690738224637681</v>
@@ -958,7 +958,7 @@
         <v>103.5154703243746</v>
       </c>
       <c r="C7">
-        <v>67.8544429863008</v>
+        <v>34.1211617195825</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4163953112771961</v>
+        <v>-0.1460095091182876</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3469960927309968</v>
+        <v>0.1126607508995453</v>
       </c>
       <c r="K7" t="s">
         <v>47</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-3.351498426301959</v>
+        <v>-1.087727213195921</v>
       </c>
       <c r="T7">
         <v>-0.000619780219780219</v>
       </c>
       <c r="U7">
-        <v>3.352118206521739</v>
+        <v>1.088346993415701</v>
       </c>
       <c r="V7">
         <v>3.352118206521739</v>
@@ -1029,28 +1029,28 @@
         <v>121.4558228816549</v>
       </c>
       <c r="C8">
-        <v>51.096950854791</v>
+        <v>28.68252565360289</v>
       </c>
       <c r="D8">
-        <v>-2.371887987295091</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.1185943993647545</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8100064028660797</v>
+        <v>0.4685088186591597</v>
       </c>
       <c r="H8">
-        <v>0.2880796072800374</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4910671115952761</v>
+        <v>0.468809621209075</v>
       </c>
       <c r="K8" t="s">
         <v>47</v>
@@ -1074,16 +1074,16 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>2.371887987295091</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>-3.84750218366311</v>
+        <v>-3.664246330974281</v>
       </c>
       <c r="T8">
         <v>-0.1956725274725275</v>
       </c>
       <c r="U8">
-        <v>4.043174711135637</v>
+        <v>3.859918858446808</v>
       </c>
       <c r="V8">
         <v>4.505302536231884</v>
@@ -1100,19 +1100,19 @@
         <v>83.50490953228045</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>10.36129399873149</v>
       </c>
       <c r="D9">
-        <v>9.570888597260158</v>
+        <v>9.323335009093366</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.4785444298630079</v>
+        <v>0.4661667504546683</v>
       </c>
       <c r="G9">
-        <v>-1.122503355463366</v>
+        <v>-1.16558034945229</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1174135003842339</v>
+        <v>0.06084406540920442</v>
       </c>
       <c r="K9" t="s">
         <v>47</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.77635683940025E-15</v>
+        <v>0.677438431966226</v>
       </c>
       <c r="P9">
-        <v>9.570888597260156</v>
+        <v>8.645896577127139</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1151,10 +1151,10 @@
         <v>-0</v>
       </c>
       <c r="T9">
-        <v>-1.406067032967031</v>
+        <v>-0.7286286010008066</v>
       </c>
       <c r="U9">
-        <v>1.406067032967031</v>
+        <v>0.7286286010008066</v>
       </c>
       <c r="V9">
         <v>4.443215126811594</v>
@@ -1171,19 +1171,19 @@
         <v>83.54949562883922</v>
       </c>
       <c r="C10">
-        <v>67.8544429863008</v>
+        <v>56.97796904419832</v>
       </c>
       <c r="D10">
-        <v>4.429111402739842</v>
+        <v>2.462296494992431</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.2214555701369921</v>
+        <v>0.1231148247496216</v>
       </c>
       <c r="G10">
-        <v>-0.2994218647497251</v>
+        <v>-0.1046447462063165</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.244089208791209</v>
+        <v>0.2420770807064714</v>
       </c>
       <c r="K10" t="s">
         <v>47</v>
@@ -1207,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.025046796916286E-13</v>
+        <v>0.02408306680501404</v>
       </c>
       <c r="P10">
-        <v>4.42911140273964</v>
+        <v>2.438213428187417</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1222,10 +1222,10 @@
         <v>-0</v>
       </c>
       <c r="T10">
-        <v>-2.921492307692106</v>
+        <v>-2.897409240887294</v>
       </c>
       <c r="U10">
-        <v>2.921492307692106</v>
+        <v>2.897409240887294</v>
       </c>
       <c r="V10">
         <v>4.400345108695652</v>
@@ -1242,7 +1242,7 @@
         <v>107.5905496651075</v>
       </c>
       <c r="C11">
-        <v>90</v>
+        <v>69.28945151916047</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5833181281724554</v>
+        <v>0.5788703211266303</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4860984401437131</v>
+        <v>0.4842451872079526</v>
       </c>
       <c r="K11" t="s">
         <v>47</v>
@@ -1290,13 +1290,13 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-0.4053227255534306</v>
+        <v>-0.3880976724095531</v>
       </c>
       <c r="T11">
         <v>-4.112717582417583</v>
       </c>
       <c r="U11">
-        <v>4.518040307971013</v>
+        <v>4.500815254827136</v>
       </c>
       <c r="V11">
         <v>4.518040307971015</v>
@@ -1313,7 +1313,7 @@
         <v>111.4679819417473</v>
       </c>
       <c r="C12">
-        <v>87.97338637223285</v>
+        <v>67.34896315711271</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7362101571136587</v>
+        <v>0.7337889191289334</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6135084642613825</v>
+        <v>0.6124996151010803</v>
       </c>
       <c r="K12" t="s">
         <v>47</v>
@@ -1361,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-0.8290567924828771</v>
+        <v>-0.8200062190112103</v>
       </c>
       <c r="T12">
         <v>-4.674841758241758</v>
       </c>
       <c r="U12">
-        <v>5.503898550724635</v>
+        <v>5.494847977252968</v>
       </c>
       <c r="V12">
         <v>5.503898550724638</v>
@@ -1384,28 +1384,28 @@
         <v>140.0245837966475</v>
       </c>
       <c r="C13">
-        <v>83.82810240981847</v>
+        <v>63.24893206205665</v>
       </c>
       <c r="D13">
-        <v>-3.977745232165644</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.1988872616082822</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1.57777708922633</v>
+        <v>1.018449708642091</v>
       </c>
       <c r="H13">
-        <v>0.556982120583093</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8506624738693644</v>
+        <v>0.8496852822022203</v>
       </c>
       <c r="K13" t="s">
         <v>47</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>3.977745232165644</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>-1.072205837912088</v>
+        <v>-1.06522712288471</v>
       </c>
       <c r="T13">
         <v>-5.002887912087912</v>
       </c>
       <c r="U13">
-        <v>6.075093750000001</v>
+        <v>6.068115034972622</v>
       </c>
       <c r="V13">
         <v>6.075093750000001</v>
@@ -1455,7 +1455,7 @@
         <v>133.8330227159034</v>
       </c>
       <c r="C14">
-        <v>58.57834705942982</v>
+        <v>57.9227964476331</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.031830930008762</v>
+        <v>1.01827498966397</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8598591083406351</v>
+        <v>0.8542107998636382</v>
       </c>
       <c r="K14" t="s">
         <v>47</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-1.726084816451664</v>
+        <v>-1.683880670102919</v>
       </c>
       <c r="T14">
         <v>-4.69878021978022</v>
       </c>
       <c r="U14">
-        <v>6.424865036231884</v>
+        <v>6.382660889883139</v>
       </c>
       <c r="V14">
         <v>6.424865036231884</v>
@@ -1526,7 +1526,7 @@
         <v>93.56932221264108</v>
       </c>
       <c r="C15">
-        <v>49.94792297717149</v>
+        <v>49.50339309711851</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.7306127110197471</v>
+        <v>0.7272948925896212</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6088439258497892</v>
+        <v>0.6074615015039035</v>
       </c>
       <c r="K15" t="s">
         <v>47</v>
@@ -1574,13 +1574,13 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-2.279163364986462</v>
+        <v>-2.264389031762757</v>
       </c>
       <c r="T15">
         <v>-4.227712087912088</v>
       </c>
       <c r="U15">
-        <v>6.50687545289855</v>
+        <v>6.492101119674845</v>
       </c>
       <c r="V15">
         <v>6.50687545289855</v>
@@ -1597,19 +1597,19 @@
         <v>70.86499221514897</v>
       </c>
       <c r="C16">
-        <v>38.55210615223918</v>
+        <v>38.18144793830472</v>
       </c>
       <c r="D16">
-        <v>9.881422465616909</v>
+        <v>9.861439893089814</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.4940711232808455</v>
+        <v>0.4930719946544907</v>
       </c>
       <c r="G16">
-        <v>-0.7932107769089605</v>
+        <v>-0.7917440634852252</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2292659271272496</v>
+        <v>0.2290721234671244</v>
       </c>
       <c r="K16" t="s">
         <v>47</v>
@@ -1633,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.153033389935445E-14</v>
+        <v>0.002734829343367107</v>
       </c>
       <c r="P16">
-        <v>9.881422465616877</v>
+        <v>9.858705063746447</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>-0</v>
       </c>
       <c r="T16">
-        <v>-3.235249450549419</v>
+        <v>-3.232514621206084</v>
       </c>
       <c r="U16">
-        <v>3.235249450549419</v>
+        <v>3.232514621206084</v>
       </c>
       <c r="V16">
         <v>5.916798913043478</v>
@@ -1668,28 +1668,28 @@
         <v>166.4434092688318</v>
       </c>
       <c r="C17">
-        <v>87.95921848032373</v>
+        <v>87.48864740375379</v>
       </c>
       <c r="D17">
-        <v>-4.191097276901375</v>
+        <v>-2.613032275803324</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.2095548638450687</v>
+        <v>0.1306516137901662</v>
       </c>
       <c r="G17">
-        <v>1.599738804972821</v>
+        <v>1.335807538930378</v>
       </c>
       <c r="H17">
-        <v>0.6975805193447819</v>
+        <v>0.4349220005141995</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7517985713566994</v>
+        <v>0.7512682600184241</v>
       </c>
       <c r="K17" t="s">
         <v>47</v>
@@ -1713,16 +1713,16 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>4.191097276901375</v>
+        <v>2.613032275803324</v>
       </c>
       <c r="S17">
-        <v>-2.920443037306895</v>
+        <v>-2.917256901306648</v>
       </c>
       <c r="T17">
         <v>-1.596398901098901</v>
       </c>
       <c r="U17">
-        <v>4.516841938405796</v>
+        <v>4.513655802405549</v>
       </c>
       <c r="V17">
         <v>4.516841938405797</v>
@@ -1739,28 +1739,28 @@
         <v>128.9514380688834</v>
       </c>
       <c r="C18">
-        <v>52.40151690928239</v>
+        <v>59.83720151820393</v>
       </c>
       <c r="D18">
-        <v>-2.619286938693599</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.13096434693468</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1.011403361729543</v>
+        <v>0.668023544076928</v>
       </c>
       <c r="H18">
-        <v>0.3377608174595828</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5613790274488225</v>
+        <v>0.5590377773683927</v>
       </c>
       <c r="K18" t="s">
         <v>47</v>
@@ -1784,16 +1784,16 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>2.619286938693599</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>-3.861016443162878</v>
+        <v>-3.842860382901036</v>
       </c>
       <c r="T18">
         <v>-0.4923978021978022</v>
       </c>
       <c r="U18">
-        <v>4.35341424536068</v>
+        <v>4.335258185098838</v>
       </c>
       <c r="V18">
         <v>4.353493659420289</v>
@@ -1810,19 +1810,19 @@
         <v>86.09931164964732</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>40.62289960369875</v>
       </c>
       <c r="D19">
-        <v>9.526140003696309</v>
+        <v>9.875420079260252</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0.4763070001848154</v>
+        <v>0.4937710039630126</v>
       </c>
       <c r="G19">
-        <v>-1.593407198154727</v>
+        <v>-1.631606402904937</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.002988876104409</v>
+        <v>0.001228979558225684</v>
       </c>
       <c r="K19" t="s">
         <v>47</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.151057110211241E-15</v>
+        <v>0.02044030913214287</v>
       </c>
       <c r="P19">
-        <v>9.526140003696307</v>
+        <v>9.854979770128109</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>-0</v>
       </c>
       <c r="T19">
-        <v>-0.03471428571428356</v>
+        <v>-0.01427397658214284</v>
       </c>
       <c r="U19">
-        <v>0.03471428571428356</v>
+        <v>0.01427397658214284</v>
       </c>
       <c r="V19">
         <v>5.965471467391303</v>
@@ -1881,28 +1881,28 @@
         <v>99.52787598991144</v>
       </c>
       <c r="C20">
-        <v>67.63070001848155</v>
+        <v>90</v>
       </c>
       <c r="D20">
-        <v>-1.72519031483074</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>0.08625951574153699</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0.3900492026561061</v>
+        <v>0.1713923849109694</v>
       </c>
       <c r="H20">
-        <v>0.1717045277134702</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3988276668810745</v>
+        <v>0.3792642127012134</v>
       </c>
       <c r="K20" t="s">
         <v>47</v>
@@ -1926,16 +1926,16 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>1.72519031483074</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>-4.007195601376053</v>
+        <v>-3.810633040532857</v>
       </c>
       <c r="T20">
         <v>-0</v>
       </c>
       <c r="U20">
-        <v>4.007195601376053</v>
+        <v>3.810633040532857</v>
       </c>
       <c r="V20">
         <v>6.186221014492753</v>
@@ -1952,28 +1952,28 @@
         <v>93.60128767093309</v>
       </c>
       <c r="C21">
-        <v>38.96877043744759</v>
+        <v>70.94683479733573</v>
       </c>
       <c r="D21">
-        <v>-0.0533707485880095</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>0.002668537429400475</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.215708644122271</v>
+        <v>0.1702922296404254</v>
       </c>
       <c r="H21">
-        <v>0.004995570791799323</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3501046969040852</v>
+        <v>0.3332626786998992</v>
       </c>
       <c r="K21" t="s">
         <v>47</v>
@@ -1997,16 +1997,16 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>0.0533707485880095</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>-3.740383338901507</v>
+        <v>-3.560449722353451</v>
       </c>
       <c r="T21">
         <v>-0</v>
       </c>
       <c r="U21">
-        <v>3.740383338901507</v>
+        <v>3.560449722353451</v>
       </c>
       <c r="V21">
         <v>5.604785778985508</v>
@@ -2023,19 +2023,19 @@
         <v>100.1017244434446</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>53.14458618556846</v>
       </c>
       <c r="D22">
-        <v>7.522341661900736</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0.3761170830950368</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>-1.546341429873751</v>
+        <v>0.282808607760862</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3856461629099066</v>
       </c>
       <c r="K22" t="s">
         <v>47</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>7.522341661900736</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -2071,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>-0</v>
+        <v>-3.852542651528331</v>
       </c>
       <c r="T22">
         <v>-0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>3.852542651528331</v>
       </c>
       <c r="V22">
         <v>5.350741847826087</v>
@@ -2094,7 +2094,7 @@
         <v>126.6537162367117</v>
       </c>
       <c r="C23">
-        <v>57.61170830950368</v>
+        <v>33.88187292792681</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4647078883702751</v>
+        <v>0.3968242219005791</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4960079827205796</v>
+        <v>0.4677231216915396</v>
       </c>
       <c r="K23" t="s">
         <v>47</v>
@@ -2142,13 +2142,13 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>-3.916252893784471</v>
+        <v>-3.692928526608569</v>
       </c>
       <c r="T23">
         <v>-0</v>
       </c>
       <c r="U23">
-        <v>3.916252893784471</v>
+        <v>3.692928526608569</v>
       </c>
       <c r="V23">
         <v>4.774904438405797</v>
@@ -2165,28 +2165,28 @@
         <v>85.12846470743519</v>
       </c>
       <c r="C24">
-        <v>38.03044384058133</v>
+        <v>15.41723029488397</v>
       </c>
       <c r="D24">
-        <v>-3.241851231905457E-13</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1.620925615952729E-14</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.3683769605141511</v>
+        <v>-0.1532670541791597</v>
       </c>
       <c r="H24">
-        <v>2.75973818182019E-14</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3069808004284363</v>
+        <v>0.0896291276395683</v>
       </c>
       <c r="K24" t="s">
         <v>47</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <v>3.241851231905457E-13</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>-3.606088768115941</v>
+        <v>-1.052869072026622</v>
       </c>
       <c r="T24">
         <v>-0</v>
       </c>
       <c r="U24">
-        <v>3.606088768115941</v>
+        <v>1.052869072026622</v>
       </c>
       <c r="V24">
         <v>3.606088768115942</v>
@@ -2236,7 +2236,7 @@
         <v>99.71725698729442</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>10.15288493475086</v>
       </c>
       <c r="D25">
         <v>0</v>
